--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="2">计算颜色代码!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$59</definedName>
+    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$62</definedName>
     <definedName name="Untitled_1" localSheetId="1">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="327">
   <si>
     <t>#F07613</t>
   </si>
@@ -812,9 +812,6 @@
     <t>diamond_magic_sword</t>
   </si>
   <si>
-    <t>羊羊魔法装备</t>
-  </si>
-  <si>
     <t>羊羊骨粉</t>
   </si>
   <si>
@@ -1056,6 +1053,68 @@
   </si>
   <si>
     <t>item_energy_buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法胸甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法护腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法靴子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_chestplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_leggings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型羊羊力场发射器</t>
+  </si>
+  <si>
+    <t>micro_lens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微透镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_field_generator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示当前数据包版本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1428,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1507,7 @@
         <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>218</v>
@@ -1487,16 +1546,19 @@
       <c r="C3" t="s">
         <v>226</v>
       </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4">
         <v>13950300</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1507,13 +1569,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5">
         <v>13950301</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1524,13 +1586,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6">
         <v>13950302</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1541,13 +1603,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7">
         <v>13950303</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1556,18 +1618,18 @@
         <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>13950304</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1578,13 +1640,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9">
         <v>13950305</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1595,13 +1657,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10">
         <v>13950306</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1612,13 +1674,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11">
         <v>13950307</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1629,13 +1691,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12">
         <v>13950308</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1646,13 +1708,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13">
         <v>13950309</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -1663,13 +1725,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14">
         <v>13950310</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1680,13 +1742,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15">
         <v>13950311</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -1697,13 +1759,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16">
         <v>13950312</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1714,13 +1776,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17">
         <v>13950313</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D17">
         <v>13</v>
@@ -1731,13 +1793,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18">
         <v>13950314</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1748,13 +1810,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19">
         <v>13950315</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1763,7 +1825,7 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,7 +1841,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21">
         <v>13950500</v>
@@ -1790,7 +1852,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22">
         <v>13950502</v>
@@ -1801,406 +1863,476 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="B23">
         <v>13950600</v>
       </c>
+      <c r="C23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="B24">
-        <v>13950700</v>
+        <v>13950601</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="B25">
-        <v>13950701</v>
+        <v>13950602</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>317</v>
+      </c>
+      <c r="D25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="B26">
-        <v>13950702</v>
+        <v>13950603</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B27">
-        <v>13950703</v>
+        <v>13950700</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B28">
-        <v>13950704</v>
+        <v>13950701</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B29">
-        <v>13950705</v>
+        <v>13950702</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B30">
-        <v>13950706</v>
+        <v>13950703</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B31">
-        <v>13950707</v>
+        <v>13950704</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B32">
-        <v>13950708</v>
+        <v>13950705</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B33">
-        <v>13950709</v>
+        <v>13950706</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34">
-        <v>13950710</v>
+        <v>13950707</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B35">
-        <v>13950711</v>
+        <v>13950708</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B36">
-        <v>13950712</v>
+        <v>13950709</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B37">
-        <v>13950713</v>
+        <v>13950710</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B38">
-        <v>13950714</v>
+        <v>13950711</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B39">
-        <v>13950715</v>
+        <v>13950712</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B40">
-        <v>13950716</v>
+        <v>13950713</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B41">
-        <v>13950717</v>
+        <v>13950714</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B42">
-        <v>13950718</v>
+        <v>13950715</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B43">
-        <v>13950719</v>
+        <v>13950716</v>
       </c>
       <c r="C43" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B44">
-        <v>13950720</v>
+        <v>13950717</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B45">
-        <v>13950721</v>
+        <v>13950718</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B46">
-        <v>13950722</v>
+        <v>13950719</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B47">
-        <v>13950723</v>
+        <v>13950720</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B48">
-        <v>13950724</v>
+        <v>13950721</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B49">
-        <v>13950725</v>
+        <v>13950722</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B50">
-        <v>13950726</v>
+        <v>13950723</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B51">
-        <v>13950727</v>
+        <v>13950724</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52">
-        <v>13950728</v>
+        <v>13950725</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B53">
-        <v>13950729</v>
+        <v>13950726</v>
       </c>
       <c r="C53" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B54">
-        <v>13950730</v>
+        <v>13950727</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B55">
-        <v>13950731</v>
+        <v>13950728</v>
       </c>
       <c r="C55" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B56">
-        <v>13950732</v>
+        <v>13950729</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B57">
-        <v>13950733</v>
+        <v>13950730</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B58">
-        <v>13950734</v>
+        <v>13950731</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59">
+        <v>13950732</v>
+      </c>
+      <c r="C59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60">
+        <v>13950733</v>
+      </c>
+      <c r="C60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61">
+        <v>13950734</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62">
+        <v>13950735</v>
+      </c>
+      <c r="C62" t="s">
         <v>287</v>
       </c>
-      <c r="B59">
-        <v>13950735</v>
-      </c>
-      <c r="C59" t="s">
-        <v>288</v>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63">
+        <v>13950736</v>
+      </c>
+      <c r="C63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B64">
+        <v>13950737</v>
+      </c>
+      <c r="C64" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2347,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3030,27 +3162,27 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <f>HEX2DEC(B2)</f>
+        <f t="shared" ref="E2:G3" si="0">HEX2DEC(B2)</f>
         <v>255</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2" si="0">HEX2DEC(C2)</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2" si="1">HEX2DEC(D2)</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="H2">
-        <f>E2/255</f>
+        <f t="shared" ref="H2:J3" si="1">E2/255</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2" si="2">F2/255</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2" si="3">G2/255</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K2" t="str">
@@ -3079,27 +3211,27 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <f>HEX2DEC(B3)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G3" si="4">HEX2DEC(C3)</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="G3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H3">
-        <f>E3/255</f>
+        <f t="shared" si="1"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:J3" si="5">F3/255</f>
+        <f t="shared" si="1"/>
         <v>0.46274509803921571</v>
       </c>
       <c r="J3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7.4509803921568626E-2</v>
       </c>
       <c r="K3" t="str">
@@ -3116,47 +3248,47 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B17" si="6">MID(A4,2,2)</f>
+        <f t="shared" ref="B4:B17" si="2">MID(A4,2,2)</f>
         <v>BD</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C17" si="7">MID(A4,4,2)</f>
+        <f t="shared" ref="C4:C17" si="3">MID(A4,4,2)</f>
         <v>44</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D17" si="8">RIGHT(A4,2)</f>
+        <f t="shared" ref="D4:D17" si="4">RIGHT(A4,2)</f>
         <v>B3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="9">HEX2DEC(B4)</f>
+        <f t="shared" ref="E4:E17" si="5">HEX2DEC(B4)</f>
         <v>189</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="10">HEX2DEC(C4)</f>
+        <f t="shared" ref="F4:F17" si="6">HEX2DEC(C4)</f>
         <v>68</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="11">HEX2DEC(D4)</f>
+        <f t="shared" ref="G4:G17" si="7">HEX2DEC(D4)</f>
         <v>179</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H17" si="12">E4/255</f>
+        <f t="shared" ref="H4:H17" si="8">E4/255</f>
         <v>0.74117647058823533</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I17" si="13">F4/255</f>
+        <f t="shared" ref="I4:I17" si="9">F4/255</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J17" si="14">G4/255</f>
+        <f t="shared" ref="J4:J17" si="10">G4/255</f>
         <v>0.70196078431372544</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K17" si="15">CONCATENATE(ROUND(H4,3)," ",ROUND(I4,3)," ",ROUND(J4,3))</f>
+        <f t="shared" ref="K4:K17" si="11">CONCATENATE(ROUND(H4,3)," ",ROUND(I4,3)," ",ROUND(J4,3))</f>
         <v>0.741 0.267 0.702</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L17" si="16">E4*2^16+F4*2^8+G4</f>
+        <f t="shared" ref="L4:L17" si="12">E4*2^16+F4*2^8+G4</f>
         <v>12403891</v>
       </c>
     </row>
@@ -3165,47 +3297,47 @@
         <v>2</v>
       </c>
       <c r="B5" t="str">
+        <f t="shared" si="2"/>
+        <v>3A</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="3"/>
+        <v>AF</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="4"/>
+        <v>D9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="6"/>
-        <v>3A</v>
-      </c>
-      <c r="C5" t="str">
+        <v>175</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="7"/>
-        <v>AF</v>
-      </c>
-      <c r="D5" t="str">
+        <v>217</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="8"/>
-        <v>D9</v>
-      </c>
-      <c r="E5">
+        <v>0.22745098039215686</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
-      <c r="F5">
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-      <c r="G5">
+        <v>0.85098039215686272</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="H5">
+        <v>0.227 0.686 0.851</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="12"/>
-        <v>0.22745098039215686</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="13"/>
-        <v>0.68627450980392157</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="14"/>
-        <v>0.85098039215686272</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="15"/>
-        <v>0.227 0.686 0.851</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="16"/>
         <v>3846105</v>
       </c>
     </row>
@@ -3214,47 +3346,47 @@
         <v>3</v>
       </c>
       <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>F8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="6"/>
-        <v>F8</v>
-      </c>
-      <c r="C6" t="str">
+        <v>198</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="7"/>
-        <v>C6</v>
-      </c>
-      <c r="D6" t="str">
+        <v>39</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="E6">
+        <v>0.97254901960784312</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="9"/>
-        <v>248</v>
-      </c>
-      <c r="F6">
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="10"/>
-        <v>198</v>
-      </c>
-      <c r="G6">
+        <v>0.15294117647058825</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="H6">
+        <v>0.973 0.776 0.153</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="12"/>
-        <v>0.97254901960784312</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="13"/>
-        <v>0.77647058823529413</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="14"/>
-        <v>0.15294117647058825</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="15"/>
-        <v>0.973 0.776 0.153</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="16"/>
         <v>16303655</v>
       </c>
     </row>
@@ -3263,47 +3395,47 @@
         <v>4</v>
       </c>
       <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>B9</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="C7" t="str">
+        <v>185</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="7"/>
-        <v>B9</v>
-      </c>
-      <c r="D7" t="str">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="E7">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="9"/>
-        <v>112</v>
-      </c>
-      <c r="F7">
+        <v>0.72549019607843135</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-      <c r="G7">
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="H7">
+        <v>0.439 0.725 0.098</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="12"/>
-        <v>0.4392156862745098</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="13"/>
-        <v>0.72549019607843135</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="14"/>
-        <v>9.8039215686274508E-2</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="15"/>
-        <v>0.439 0.725 0.098</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="16"/>
         <v>7387417</v>
       </c>
     </row>
@@ -3312,47 +3444,47 @@
         <v>5</v>
       </c>
       <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>ED</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v>8D</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="4"/>
+        <v>AC</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="6"/>
-        <v>ED</v>
-      </c>
-      <c r="C8" t="str">
+        <v>141</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="7"/>
-        <v>8D</v>
-      </c>
-      <c r="D8" t="str">
+        <v>172</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="8"/>
-        <v>AC</v>
-      </c>
-      <c r="E8">
+        <v>0.92941176470588238</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="9"/>
-        <v>237</v>
-      </c>
-      <c r="F8">
+        <v>0.55294117647058827</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="10"/>
-        <v>141</v>
-      </c>
-      <c r="G8">
+        <v>0.67450980392156867</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="11"/>
-        <v>172</v>
-      </c>
-      <c r="H8">
+        <v>0.929 0.553 0.675</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="12"/>
-        <v>0.92941176470588238</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="13"/>
-        <v>0.55294117647058827</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="14"/>
-        <v>0.67450980392156867</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="15"/>
-        <v>0.929 0.553 0.675</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="16"/>
         <v>15568300</v>
       </c>
     </row>
@@ -3361,47 +3493,47 @@
         <v>6</v>
       </c>
       <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>3E</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="6"/>
-        <v>3E</v>
-      </c>
-      <c r="C9" t="str">
+        <v>68</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="D9" t="str">
+        <v>71</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="E9">
+        <v>0.24313725490196078</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
-      <c r="F9">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="10"/>
-        <v>68</v>
-      </c>
-      <c r="G9">
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-      <c r="H9">
+        <v>0.243 0.267 0.278</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="12"/>
-        <v>0.24313725490196078</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="13"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="14"/>
-        <v>0.27843137254901962</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="15"/>
-        <v>0.243 0.267 0.278</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="16"/>
         <v>4080711</v>
       </c>
     </row>
@@ -3410,47 +3542,47 @@
         <v>7</v>
       </c>
       <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>8E</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>8E</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="6"/>
-        <v>8E</v>
-      </c>
-      <c r="C10" t="str">
+        <v>142</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="7"/>
-        <v>8E</v>
-      </c>
-      <c r="D10" t="str">
+        <v>134</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="E10">
+        <v>0.55686274509803924</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="9"/>
-        <v>142</v>
-      </c>
-      <c r="F10">
+        <v>0.55686274509803924</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="G10">
+        <v>0.52549019607843139</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="H10">
+        <v>0.557 0.557 0.525</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="12"/>
-        <v>0.55686274509803924</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="13"/>
-        <v>0.55686274509803924</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="14"/>
-        <v>0.52549019607843139</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="15"/>
-        <v>0.557 0.557 0.525</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="16"/>
         <v>9342598</v>
       </c>
     </row>
@@ -3459,47 +3591,47 @@
         <v>8</v>
       </c>
       <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="C11" t="str">
+        <v>137</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="D11" t="str">
+        <v>145</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="E11">
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F11">
+        <v>0.53725490196078429</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="G11">
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="11"/>
-        <v>145</v>
-      </c>
-      <c r="H11">
+        <v>0.082 0.537 0.569</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="12"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="13"/>
-        <v>0.53725490196078429</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="14"/>
-        <v>0.56862745098039214</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="15"/>
-        <v>0.082 0.537 0.569</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="16"/>
         <v>1411473</v>
       </c>
     </row>
@@ -3508,47 +3640,47 @@
         <v>9</v>
       </c>
       <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v>2A</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="4"/>
+        <v>AC</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="C12" t="str">
+        <v>42</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="7"/>
-        <v>2A</v>
-      </c>
-      <c r="D12" t="str">
+        <v>172</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="8"/>
-        <v>AC</v>
-      </c>
-      <c r="E12">
+        <v>0.47450980392156861</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="9"/>
-        <v>121</v>
-      </c>
-      <c r="F12">
+        <v>0.16470588235294117</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="G12">
+        <v>0.67450980392156867</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="11"/>
-        <v>172</v>
-      </c>
-      <c r="H12">
+        <v>0.475 0.165 0.675</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="12"/>
-        <v>0.47450980392156861</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="13"/>
-        <v>0.16470588235294117</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="14"/>
-        <v>0.67450980392156867</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="15"/>
-        <v>0.475 0.165 0.675</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="16"/>
         <v>7940780</v>
       </c>
     </row>
@@ -3557,47 +3689,47 @@
         <v>10</v>
       </c>
       <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="4"/>
+        <v>9D</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="C13" t="str">
+        <v>57</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="D13" t="str">
+        <v>157</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="8"/>
-        <v>9D</v>
-      </c>
-      <c r="E13">
+        <v>0.20784313725490197</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="F13">
+        <v>0.22352941176470589</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="G13">
+        <v>0.61568627450980395</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-      <c r="H13">
+        <v>0.208 0.224 0.616</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="12"/>
-        <v>0.20784313725490197</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="13"/>
-        <v>0.22352941176470589</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="14"/>
-        <v>0.61568627450980395</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="15"/>
-        <v>0.208 0.224 0.616</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="16"/>
         <v>3488157</v>
       </c>
     </row>
@@ -3606,47 +3738,47 @@
         <v>11</v>
       </c>
       <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="C14" t="str">
+        <v>71</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="D14" t="str">
+        <v>40</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="E14">
+        <v>0.44705882352941179</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="9"/>
-        <v>114</v>
-      </c>
-      <c r="F14">
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="G14">
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="H14">
+        <v>0.447 0.278 0.157</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="12"/>
-        <v>0.44705882352941179</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="13"/>
-        <v>0.27843137254901962</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="14"/>
-        <v>0.15686274509803921</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="15"/>
-        <v>0.447 0.278 0.157</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="16"/>
         <v>7489320</v>
       </c>
     </row>
@@ -3655,47 +3787,47 @@
         <v>12</v>
       </c>
       <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="3"/>
+        <v>6D</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="4"/>
+        <v>1B</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="C15" t="str">
+        <v>109</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="7"/>
-        <v>6D</v>
-      </c>
-      <c r="D15" t="str">
+        <v>27</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="8"/>
-        <v>1B</v>
-      </c>
-      <c r="E15">
+        <v>0.32941176470588235</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="F15">
+        <v>0.42745098039215684</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="10"/>
-        <v>109</v>
-      </c>
-      <c r="G15">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="H15">
+        <v>0.329 0.427 0.106</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.32941176470588235</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="13"/>
-        <v>0.42745098039215684</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="14"/>
-        <v>0.10588235294117647</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="15"/>
-        <v>0.329 0.427 0.106</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="16"/>
         <v>5532955</v>
       </c>
     </row>
@@ -3704,47 +3836,47 @@
         <v>13</v>
       </c>
       <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="6"/>
-        <v>A1</v>
-      </c>
-      <c r="C16" t="str">
+        <v>39</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="D16" t="str">
+        <v>34</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="E16">
+        <v>0.63137254901960782</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="9"/>
-        <v>161</v>
-      </c>
-      <c r="F16">
+        <v>0.15294117647058825</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="G16">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="11"/>
-        <v>34</v>
-      </c>
-      <c r="H16">
+        <v>0.631 0.153 0.133</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="12"/>
-        <v>0.63137254901960782</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="13"/>
-        <v>0.15294117647058825</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="14"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="15"/>
-        <v>0.631 0.153 0.133</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="16"/>
         <v>10561314</v>
       </c>
     </row>
@@ -3753,47 +3885,47 @@
         <v>14</v>
       </c>
       <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="C17" t="str">
+        <v>21</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="D17" t="str">
+        <v>25</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="E17">
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="F17">
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="G17">
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="H17">
+        <v>0.078 0.082 0.098</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="12"/>
-        <v>7.8431372549019607E-2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="13"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="14"/>
-        <v>9.8039215686274508E-2</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="15"/>
-        <v>0.078 0.082 0.098</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="16"/>
         <v>1316121</v>
       </c>
     </row>

--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="392">
   <si>
     <t>#F07613</t>
   </si>
@@ -488,9 +488,6 @@
     <t>黄色</t>
   </si>
   <si>
-    <t>柠色</t>
-  </si>
-  <si>
     <t>粉色</t>
   </si>
   <si>
@@ -791,330 +788,539 @@
     <t>数组，当前包含的羊羊颜色</t>
   </si>
   <si>
+    <t>保存的羊羊能量的数量</t>
+  </si>
+  <si>
+    <t>羊羊魔法剪</t>
+  </si>
+  <si>
+    <t>magic_shears</t>
+  </si>
+  <si>
+    <t>golden_magic_sword</t>
+  </si>
+  <si>
+    <t>羊羊骨粉</t>
+  </si>
+  <si>
+    <t>羊羊热带鱼</t>
+  </si>
+  <si>
+    <t>羊羊紫颂果</t>
+  </si>
+  <si>
+    <t>羊羊冰</t>
+  </si>
+  <si>
+    <t>羊羊金粒</t>
+  </si>
+  <si>
+    <t>羊羊甘蔗</t>
+  </si>
+  <si>
+    <t>羊羊甜菜根</t>
+  </si>
+  <si>
+    <t>羊羊火药</t>
+  </si>
+  <si>
+    <t>羊羊铁粒</t>
+  </si>
+  <si>
+    <t>羊羊海晶碎片</t>
+  </si>
+  <si>
+    <t>羊羊黑曜石</t>
+  </si>
+  <si>
+    <t>羊羊青金石</t>
+  </si>
+  <si>
+    <t>羊羊砖块</t>
+  </si>
+  <si>
+    <t>羊羊橡木</t>
+  </si>
+  <si>
+    <t>羊羊红石</t>
+  </si>
+  <si>
+    <t>magic_redstone</t>
+  </si>
+  <si>
+    <t>羊羊末影珍珠</t>
+  </si>
+  <si>
+    <t>硬化轻型外壳</t>
+  </si>
+  <si>
+    <t>light_shell</t>
+  </si>
+  <si>
+    <t>生物精华</t>
+  </si>
+  <si>
+    <t>bio_essence</t>
+  </si>
+  <si>
+    <t>粘结剂</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>冷却块</t>
+  </si>
+  <si>
+    <t>cooling_block</t>
+  </si>
+  <si>
+    <t>黄能量块</t>
+  </si>
+  <si>
+    <t>yellow_energy_block</t>
+  </si>
+  <si>
+    <t>植物纤维</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>植物汁液</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>固体燃料</t>
+  </si>
+  <si>
+    <t>solid_fuel</t>
+  </si>
+  <si>
+    <t>金属紧固件</t>
+  </si>
+  <si>
+    <t>metal_fastener</t>
+  </si>
+  <si>
+    <t>海晶隔板</t>
+  </si>
+  <si>
+    <t>prismarine_baffle</t>
+  </si>
+  <si>
+    <t>黑曜晶体</t>
+  </si>
+  <si>
+    <t>obsidian_crystal</t>
+  </si>
+  <si>
+    <t>蓝能量块</t>
+  </si>
+  <si>
+    <t>blue_energy_block</t>
+  </si>
+  <si>
+    <t>厚重外壳</t>
+  </si>
+  <si>
+    <t>heavy_shell</t>
+  </si>
+  <si>
+    <t>木质柄</t>
+  </si>
+  <si>
+    <t>wooden_handle</t>
+  </si>
+  <si>
+    <t>红能量块</t>
+  </si>
+  <si>
+    <t>red_energy_block</t>
+  </si>
+  <si>
+    <t>透明末影玻璃</t>
+  </si>
+  <si>
+    <t>clear_ender_glass</t>
+  </si>
+  <si>
+    <t>羊羊能量缓冲罐</t>
+  </si>
+  <si>
+    <t>高级羊羊能量缓冲罐</t>
+  </si>
+  <si>
+    <t>advanced_item_energy_buffer</t>
+  </si>
+  <si>
+    <t>羊羊能量控制器</t>
+  </si>
+  <si>
+    <t>item_energy_controller</t>
+  </si>
+  <si>
+    <t>高级羊羊能量控制器</t>
+  </si>
+  <si>
+    <t>advanced_item_energy_controller</t>
+  </si>
+  <si>
+    <t>Custom Model Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前画笔颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送点坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金质羊羊魔法剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石羊羊魔法剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_energy_buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法胸甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法护腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法靴子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_chestplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_leggings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型羊羊力场发射器</t>
+  </si>
+  <si>
+    <t>micro_lens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微透镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_field_generator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示当前数据包版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品贴图unicode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue661</t>
+  </si>
+  <si>
+    <t>\ue662</t>
+  </si>
+  <si>
+    <t>\ue663</t>
+  </si>
+  <si>
+    <t>\ue664</t>
+  </si>
+  <si>
+    <t>\ue665</t>
+  </si>
+  <si>
+    <t>\ue666</t>
+  </si>
+  <si>
+    <t>\ue667</t>
+  </si>
+  <si>
+    <t>\ue668</t>
+  </si>
+  <si>
+    <t>\ue669</t>
+  </si>
+  <si>
+    <t>\ue670</t>
+  </si>
+  <si>
+    <t>\ue671</t>
+  </si>
+  <si>
+    <t>\ue672</t>
+  </si>
+  <si>
+    <t>\ue673</t>
+  </si>
+  <si>
+    <t>\ue674</t>
+  </si>
+  <si>
+    <t>\ue675</t>
+  </si>
+  <si>
+    <t>\ue676</t>
+  </si>
+  <si>
+    <t>\ue677</t>
+  </si>
+  <si>
+    <t>\ue678</t>
+  </si>
+  <si>
+    <t>\ue679</t>
+  </si>
+  <si>
+    <t>\ue680</t>
+  </si>
+  <si>
+    <t>\ue681</t>
+  </si>
+  <si>
+    <t>\ue682</t>
+  </si>
+  <si>
+    <t>\ue683</t>
+  </si>
+  <si>
+    <t>\ue684</t>
+  </si>
+  <si>
+    <t>\ue685</t>
+  </si>
+  <si>
+    <t>\ue686</t>
+  </si>
+  <si>
+    <t>\ue687</t>
+  </si>
+  <si>
+    <t>\ue688</t>
+  </si>
+  <si>
+    <t>\ue689</t>
+  </si>
+  <si>
+    <t>\ue690</t>
+  </si>
+  <si>
+    <t>\ue691</t>
+  </si>
+  <si>
+    <t>\ue692</t>
+  </si>
+  <si>
+    <t>\ue693</t>
+  </si>
+  <si>
+    <t>\ue694</t>
+  </si>
+  <si>
+    <t>\ue695</t>
+  </si>
+  <si>
+    <t>\ue696</t>
+  </si>
+  <si>
+    <t>\ue697</t>
+  </si>
+  <si>
+    <t>\ue698</t>
+  </si>
+  <si>
+    <t>\ue699</t>
+  </si>
+  <si>
+    <t>\ue6a0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6a1</t>
+  </si>
+  <si>
+    <t>\ue6a2</t>
+  </si>
+  <si>
+    <t>\ue6a3</t>
+  </si>
+  <si>
+    <t>\ue6a4</t>
+  </si>
+  <si>
+    <t>\ue6a5</t>
+  </si>
+  <si>
+    <t>\ue6a6</t>
+  </si>
+  <si>
+    <t>\ue6a7</t>
+  </si>
+  <si>
+    <t>\ue6a8</t>
+  </si>
+  <si>
+    <t>\ue6a9</t>
+  </si>
+  <si>
+    <t>\ue6b0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6b1</t>
+  </si>
+  <si>
+    <t>\ue6b2</t>
+  </si>
+  <si>
+    <t>\ue6b3</t>
+  </si>
+  <si>
+    <t>\ue6b4</t>
+  </si>
+  <si>
+    <t>\ue6b5</t>
+  </si>
+  <si>
+    <t>\ue6b6</t>
+  </si>
+  <si>
+    <t>\ue6b7</t>
+  </si>
+  <si>
+    <t>\ue6b8</t>
+  </si>
+  <si>
+    <t>\ue6b9</t>
+  </si>
+  <si>
+    <t>\ue6c0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6c1</t>
+  </si>
+  <si>
+    <t>\ue6c2</t>
+  </si>
+  <si>
+    <t>白色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>橙色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>紫红羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>海蓝羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>黄色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>粉色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>灰色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>浅灰羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>青色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>紫色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>蓝色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>棕色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>绿色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>红色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>黑色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬羊羊魔法罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>羊羊大百科魔法书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组，表示跳转前页数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>magic_book</t>
-  </si>
-  <si>
-    <t>保存的羊羊能量的数量</t>
-  </si>
-  <si>
-    <t>羊羊魔法剪</t>
-  </si>
-  <si>
-    <t>magic_shears</t>
-  </si>
-  <si>
-    <t>golden_magic_sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>diamond_magic_sword</t>
-  </si>
-  <si>
-    <t>羊羊骨粉</t>
-  </si>
-  <si>
-    <t>羊羊热带鱼</t>
-  </si>
-  <si>
-    <t>羊羊紫颂果</t>
-  </si>
-  <si>
-    <t>羊羊冰</t>
-  </si>
-  <si>
-    <t>羊羊金粒</t>
-  </si>
-  <si>
-    <t>羊羊甘蔗</t>
-  </si>
-  <si>
-    <t>羊羊甜菜根</t>
-  </si>
-  <si>
-    <t>羊羊火药</t>
-  </si>
-  <si>
-    <t>羊羊铁粒</t>
-  </si>
-  <si>
-    <t>羊羊海晶碎片</t>
-  </si>
-  <si>
-    <t>羊羊黑曜石</t>
-  </si>
-  <si>
-    <t>羊羊青金石</t>
-  </si>
-  <si>
-    <t>羊羊砖块</t>
-  </si>
-  <si>
-    <t>羊羊橡木</t>
-  </si>
-  <si>
-    <t>羊羊红石</t>
-  </si>
-  <si>
-    <t>magic_redstone</t>
-  </si>
-  <si>
-    <t>羊羊末影珍珠</t>
-  </si>
-  <si>
-    <t>硬化轻型外壳</t>
-  </si>
-  <si>
-    <t>light_shell</t>
-  </si>
-  <si>
-    <t>生物精华</t>
-  </si>
-  <si>
-    <t>bio_essence</t>
-  </si>
-  <si>
-    <t>粘结剂</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>冷却块</t>
-  </si>
-  <si>
-    <t>cooling_block</t>
-  </si>
-  <si>
-    <t>黄能量块</t>
-  </si>
-  <si>
-    <t>yellow_energy_block</t>
-  </si>
-  <si>
-    <t>植物纤维</t>
-  </si>
-  <si>
-    <t>fibre</t>
-  </si>
-  <si>
-    <t>植物汁液</t>
-  </si>
-  <si>
-    <t>sap</t>
-  </si>
-  <si>
-    <t>固体燃料</t>
-  </si>
-  <si>
-    <t>solid_fuel</t>
-  </si>
-  <si>
-    <t>金属紧固件</t>
-  </si>
-  <si>
-    <t>metal_fastener</t>
-  </si>
-  <si>
-    <t>海晶隔板</t>
-  </si>
-  <si>
-    <t>prismarine_baffle</t>
-  </si>
-  <si>
-    <t>黑曜晶体</t>
-  </si>
-  <si>
-    <t>obsidian_crystal</t>
-  </si>
-  <si>
-    <t>蓝能量块</t>
-  </si>
-  <si>
-    <t>blue_energy_block</t>
-  </si>
-  <si>
-    <t>厚重外壳</t>
-  </si>
-  <si>
-    <t>heavy_shell</t>
-  </si>
-  <si>
-    <t>木质柄</t>
-  </si>
-  <si>
-    <t>wooden_handle</t>
-  </si>
-  <si>
-    <t>红能量块</t>
-  </si>
-  <si>
-    <t>red_energy_block</t>
-  </si>
-  <si>
-    <t>透明末影玻璃</t>
-  </si>
-  <si>
-    <t>clear_ender_glass</t>
-  </si>
-  <si>
-    <t>羊羊能量缓冲罐</t>
-  </si>
-  <si>
-    <t>高级羊羊能量缓冲罐</t>
-  </si>
-  <si>
-    <t>advanced_item_energy_buffer</t>
-  </si>
-  <si>
-    <t>羊羊能量控制器</t>
-  </si>
-  <si>
-    <t>item_energy_controller</t>
-  </si>
-  <si>
-    <t>高级羊羊能量控制器</t>
-  </si>
-  <si>
-    <t>advanced_item_energy_controller</t>
-  </si>
-  <si>
-    <t>Custom Model Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法罐（白）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（橙）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（紫红）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（海蓝）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（黄）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（柠）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（粉）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（灰）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（浅灰）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（青）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（紫）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（蓝）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（棕）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（绿）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（红）</t>
-  </si>
-  <si>
-    <t>羊羊魔法罐（黑）</t>
-  </si>
-  <si>
-    <t>pot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前画笔颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送点坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金质羊羊魔法剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石羊羊魔法剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_energy_buffer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法胸甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法护腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法靴子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_helmet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_chestplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_leggings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_boots</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型羊羊力场发射器</t>
-  </si>
-  <si>
-    <t>micro_lens</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微透镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_field_generator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示当前数据包版本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1487,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1500,839 +1706,1035 @@
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>218</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>220</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>222</v>
       </c>
       <c r="B2">
         <v>13950100</v>
       </c>
       <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="B3">
         <v>13950200</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="B4">
         <v>13950300</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="B5">
         <v>13950301</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="B6">
         <v>13950302</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="B7">
         <v>13950303</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="G7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="B8">
         <v>13950304</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="B9">
         <v>13950305</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="B10">
         <v>13950306</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="B11">
         <v>13950307</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="B12">
         <v>13950308</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="B13">
         <v>13950309</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="B14">
         <v>13950310</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="B15">
         <v>13950311</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B16">
         <v>13950312</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="B17">
         <v>13950313</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="B18">
         <v>13950314</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="B19">
         <v>13950315</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="G19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B20">
         <v>13950400</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B21">
         <v>13950500</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="G21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B22">
         <v>13950502</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="G22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B23">
         <v>13950600</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="G23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B24">
         <v>13950601</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="G24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B25">
         <v>13950602</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="G25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B26">
         <v>13950603</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B27">
         <v>13950700</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B28">
         <v>13950701</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B29">
         <v>13950702</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>13950703</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B31">
         <v>13950704</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>13950705</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>13950706</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>13950707</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B35">
         <v>13950708</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>13950709</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="G36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B37">
         <v>13950710</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="G37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B38">
         <v>13950711</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B39">
         <v>13950712</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="G39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B40">
         <v>13950713</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="G40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B41">
         <v>13950714</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B42">
         <v>13950715</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="G42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B43">
         <v>13950716</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="G43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B44">
         <v>13950717</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="G44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B45">
         <v>13950718</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B46">
         <v>13950719</v>
       </c>
       <c r="C46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="G46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B47">
         <v>13950720</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="G47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B48">
         <v>13950721</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="G48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B49">
         <v>13950722</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="G49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B50">
         <v>13950723</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="G50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B51">
         <v>13950724</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="G51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B52">
         <v>13950725</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="G52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B53">
         <v>13950726</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="G53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B54">
         <v>13950727</v>
       </c>
       <c r="C54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="G54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B55">
         <v>13950728</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="G55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B56">
         <v>13950729</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="G56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B57">
         <v>13950730</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="G57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B58">
         <v>13950731</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="G58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B59">
         <v>13950732</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="G59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B60">
         <v>13950733</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="G60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B61">
         <v>13950734</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="G61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B62">
         <v>13950735</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B63">
         <v>13950736</v>
       </c>
       <c r="C63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="G63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B64">
         <v>13950737</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>305</v>
+      </c>
+      <c r="G64" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2749,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2397,16 +2799,16 @@
         <v>132</v>
       </c>
       <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
         <v>213</v>
-      </c>
-      <c r="L1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2441,16 +2843,16 @@
         <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2467,7 +2869,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -2485,16 +2887,16 @@
         <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2529,16 +2931,16 @@
         <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2552,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -2573,16 +2975,16 @@
         <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2617,16 +3019,16 @@
         <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2637,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -2661,16 +3063,16 @@
         <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2681,7 +3083,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -2705,16 +3107,16 @@
         <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2725,7 +3127,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -2749,16 +3151,16 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2793,16 +3195,16 @@
         <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2813,7 +3215,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -2837,16 +3239,16 @@
         <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2857,7 +3259,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -2881,16 +3283,16 @@
         <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2901,7 +3303,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -2925,16 +3327,16 @@
         <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2945,7 +3347,7 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -2969,16 +3371,16 @@
         <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2989,7 +3391,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
@@ -3013,16 +3415,16 @@
         <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3033,7 +3435,7 @@
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -3057,16 +3459,16 @@
         <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -3077,7 +3479,7 @@
         <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -3101,16 +3503,16 @@
         <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="2">计算颜色代码!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$62</definedName>
+    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$67</definedName>
     <definedName name="Untitled_1" localSheetId="1">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="413">
   <si>
     <t>#F07613</t>
   </si>
@@ -854,473 +855,561 @@
     <t>硬化轻型外壳</t>
   </si>
   <si>
+    <t>生物精华</t>
+  </si>
+  <si>
+    <t>粘结剂</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>冷却块</t>
+  </si>
+  <si>
+    <t>cooling_block</t>
+  </si>
+  <si>
+    <t>黄能量块</t>
+  </si>
+  <si>
+    <t>yellow_energy_block</t>
+  </si>
+  <si>
+    <t>植物纤维</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>植物汁液</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>固体燃料</t>
+  </si>
+  <si>
+    <t>solid_fuel</t>
+  </si>
+  <si>
+    <t>金属紧固件</t>
+  </si>
+  <si>
+    <t>海晶隔板</t>
+  </si>
+  <si>
+    <t>prismarine_baffle</t>
+  </si>
+  <si>
+    <t>黑曜晶体</t>
+  </si>
+  <si>
+    <t>obsidian_crystal</t>
+  </si>
+  <si>
+    <t>蓝能量块</t>
+  </si>
+  <si>
+    <t>blue_energy_block</t>
+  </si>
+  <si>
+    <t>厚重外壳</t>
+  </si>
+  <si>
+    <t>heavy_shell</t>
+  </si>
+  <si>
+    <t>木质柄</t>
+  </si>
+  <si>
+    <t>红能量块</t>
+  </si>
+  <si>
+    <t>red_energy_block</t>
+  </si>
+  <si>
+    <t>透明末影玻璃</t>
+  </si>
+  <si>
+    <t>clear_ender_glass</t>
+  </si>
+  <si>
+    <t>羊羊能量缓冲罐</t>
+  </si>
+  <si>
+    <t>高级羊羊能量缓冲罐</t>
+  </si>
+  <si>
+    <t>advanced_item_energy_buffer</t>
+  </si>
+  <si>
+    <t>羊羊能量控制器</t>
+  </si>
+  <si>
+    <t>item_energy_controller</t>
+  </si>
+  <si>
+    <t>高级羊羊能量控制器</t>
+  </si>
+  <si>
+    <t>advanced_item_energy_controller</t>
+  </si>
+  <si>
+    <t>Custom Model Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前画笔颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送点坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金质羊羊魔法剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石羊羊魔法剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_energy_buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法胸甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法护腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊魔法靴子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_chestplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_leggings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15，表示当前颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型羊羊力场发射器</t>
+  </si>
+  <si>
+    <t>micro_lens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微透镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_field_generator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示当前数据包版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品贴图unicode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue661</t>
+  </si>
+  <si>
+    <t>\ue662</t>
+  </si>
+  <si>
+    <t>\ue663</t>
+  </si>
+  <si>
+    <t>\ue664</t>
+  </si>
+  <si>
+    <t>\ue665</t>
+  </si>
+  <si>
+    <t>\ue666</t>
+  </si>
+  <si>
+    <t>\ue667</t>
+  </si>
+  <si>
+    <t>\ue668</t>
+  </si>
+  <si>
+    <t>\ue669</t>
+  </si>
+  <si>
+    <t>\ue670</t>
+  </si>
+  <si>
+    <t>\ue671</t>
+  </si>
+  <si>
+    <t>\ue672</t>
+  </si>
+  <si>
+    <t>\ue673</t>
+  </si>
+  <si>
+    <t>\ue674</t>
+  </si>
+  <si>
+    <t>\ue675</t>
+  </si>
+  <si>
+    <t>\ue676</t>
+  </si>
+  <si>
+    <t>\ue677</t>
+  </si>
+  <si>
+    <t>\ue678</t>
+  </si>
+  <si>
+    <t>\ue679</t>
+  </si>
+  <si>
+    <t>\ue680</t>
+  </si>
+  <si>
+    <t>\ue681</t>
+  </si>
+  <si>
+    <t>\ue682</t>
+  </si>
+  <si>
+    <t>\ue683</t>
+  </si>
+  <si>
+    <t>\ue684</t>
+  </si>
+  <si>
+    <t>\ue685</t>
+  </si>
+  <si>
+    <t>\ue686</t>
+  </si>
+  <si>
+    <t>\ue687</t>
+  </si>
+  <si>
+    <t>\ue688</t>
+  </si>
+  <si>
+    <t>\ue689</t>
+  </si>
+  <si>
+    <t>\ue690</t>
+  </si>
+  <si>
+    <t>\ue691</t>
+  </si>
+  <si>
+    <t>\ue692</t>
+  </si>
+  <si>
+    <t>\ue693</t>
+  </si>
+  <si>
+    <t>\ue694</t>
+  </si>
+  <si>
+    <t>\ue695</t>
+  </si>
+  <si>
+    <t>\ue696</t>
+  </si>
+  <si>
+    <t>\ue697</t>
+  </si>
+  <si>
+    <t>\ue698</t>
+  </si>
+  <si>
+    <t>\ue699</t>
+  </si>
+  <si>
+    <t>\ue6a0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6a1</t>
+  </si>
+  <si>
+    <t>\ue6a2</t>
+  </si>
+  <si>
+    <t>\ue6a3</t>
+  </si>
+  <si>
+    <t>\ue6a4</t>
+  </si>
+  <si>
+    <t>\ue6a5</t>
+  </si>
+  <si>
+    <t>\ue6a6</t>
+  </si>
+  <si>
+    <t>\ue6a7</t>
+  </si>
+  <si>
+    <t>\ue6a8</t>
+  </si>
+  <si>
+    <t>\ue6a9</t>
+  </si>
+  <si>
+    <t>\ue6b0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6b1</t>
+  </si>
+  <si>
+    <t>\ue6b2</t>
+  </si>
+  <si>
+    <t>\ue6b3</t>
+  </si>
+  <si>
+    <t>\ue6b4</t>
+  </si>
+  <si>
+    <t>\ue6b5</t>
+  </si>
+  <si>
+    <t>\ue6b6</t>
+  </si>
+  <si>
+    <t>\ue6b7</t>
+  </si>
+  <si>
+    <t>\ue6b8</t>
+  </si>
+  <si>
+    <t>\ue6b9</t>
+  </si>
+  <si>
+    <t>\ue6c0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ue6c1</t>
+  </si>
+  <si>
+    <t>\ue6c2</t>
+  </si>
+  <si>
+    <t>白色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>橙色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>紫红羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>海蓝羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>黄色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>粉色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>灰色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>浅灰羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>青色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>紫色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>蓝色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>棕色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>绿色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>红色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>黑色羊羊魔法罐</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬羊羊魔法罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊大百科魔法书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组，表示跳转前页数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond_magic_sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜美小麦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet_wheat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携式羊羊核磁共振仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型显示面板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_display_panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>light_shell</t>
-  </si>
-  <si>
-    <t>生物精华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal_fastener</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bio_essence</t>
-  </si>
-  <si>
-    <t>粘结剂</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>冷却块</t>
-  </si>
-  <si>
-    <t>cooling_block</t>
-  </si>
-  <si>
-    <t>黄能量块</t>
-  </si>
-  <si>
-    <t>yellow_energy_block</t>
-  </si>
-  <si>
-    <t>植物纤维</t>
-  </si>
-  <si>
-    <t>fibre</t>
-  </si>
-  <si>
-    <t>植物汁液</t>
-  </si>
-  <si>
-    <t>sap</t>
-  </si>
-  <si>
-    <t>固体燃料</t>
-  </si>
-  <si>
-    <t>solid_fuel</t>
-  </si>
-  <si>
-    <t>金属紧固件</t>
-  </si>
-  <si>
-    <t>metal_fastener</t>
-  </si>
-  <si>
-    <t>海晶隔板</t>
-  </si>
-  <si>
-    <t>prismarine_baffle</t>
-  </si>
-  <si>
-    <t>黑曜晶体</t>
-  </si>
-  <si>
-    <t>obsidian_crystal</t>
-  </si>
-  <si>
-    <t>蓝能量块</t>
-  </si>
-  <si>
-    <t>blue_energy_block</t>
-  </si>
-  <si>
-    <t>厚重外壳</t>
-  </si>
-  <si>
-    <t>heavy_shell</t>
-  </si>
-  <si>
-    <t>木质柄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wooden_handle</t>
-  </si>
-  <si>
-    <t>红能量块</t>
-  </si>
-  <si>
-    <t>red_energy_block</t>
-  </si>
-  <si>
-    <t>透明末影玻璃</t>
-  </si>
-  <si>
-    <t>clear_ender_glass</t>
-  </si>
-  <si>
-    <t>羊羊能量缓冲罐</t>
-  </si>
-  <si>
-    <t>高级羊羊能量缓冲罐</t>
-  </si>
-  <si>
-    <t>advanced_item_energy_buffer</t>
-  </si>
-  <si>
-    <t>羊羊能量控制器</t>
-  </si>
-  <si>
-    <t>item_energy_controller</t>
-  </si>
-  <si>
-    <t>高级羊羊能量控制器</t>
-  </si>
-  <si>
-    <t>advanced_item_energy_controller</t>
-  </si>
-  <si>
-    <t>Custom Model Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前画笔颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送点坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金质羊羊魔法剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石羊羊魔法剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_energy_buffer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法胸甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法护腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊魔法靴子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_helmet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_chestplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_leggings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheep_boots</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-15，表示当前颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型羊羊力场发射器</t>
-  </si>
-  <si>
-    <t>micro_lens</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微透镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_field_generator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示当前数据包版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品贴图unicode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ue660</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ue661</t>
-  </si>
-  <si>
-    <t>\ue662</t>
-  </si>
-  <si>
-    <t>\ue663</t>
-  </si>
-  <si>
-    <t>\ue664</t>
-  </si>
-  <si>
-    <t>\ue665</t>
-  </si>
-  <si>
-    <t>\ue666</t>
-  </si>
-  <si>
-    <t>\ue667</t>
-  </si>
-  <si>
-    <t>\ue668</t>
-  </si>
-  <si>
-    <t>\ue669</t>
-  </si>
-  <si>
-    <t>\ue670</t>
-  </si>
-  <si>
-    <t>\ue671</t>
-  </si>
-  <si>
-    <t>\ue672</t>
-  </si>
-  <si>
-    <t>\ue673</t>
-  </si>
-  <si>
-    <t>\ue674</t>
-  </si>
-  <si>
-    <t>\ue675</t>
-  </si>
-  <si>
-    <t>\ue676</t>
-  </si>
-  <si>
-    <t>\ue677</t>
-  </si>
-  <si>
-    <t>\ue678</t>
-  </si>
-  <si>
-    <t>\ue679</t>
-  </si>
-  <si>
-    <t>\ue680</t>
-  </si>
-  <si>
-    <t>\ue681</t>
-  </si>
-  <si>
-    <t>\ue682</t>
-  </si>
-  <si>
-    <t>\ue683</t>
-  </si>
-  <si>
-    <t>\ue684</t>
-  </si>
-  <si>
-    <t>\ue685</t>
-  </si>
-  <si>
-    <t>\ue686</t>
-  </si>
-  <si>
-    <t>\ue687</t>
-  </si>
-  <si>
-    <t>\ue688</t>
-  </si>
-  <si>
-    <t>\ue689</t>
-  </si>
-  <si>
-    <t>\ue690</t>
-  </si>
-  <si>
-    <t>\ue691</t>
-  </si>
-  <si>
-    <t>\ue692</t>
-  </si>
-  <si>
-    <t>\ue693</t>
-  </si>
-  <si>
-    <t>\ue694</t>
-  </si>
-  <si>
-    <t>\ue695</t>
-  </si>
-  <si>
-    <t>\ue696</t>
-  </si>
-  <si>
-    <t>\ue697</t>
-  </si>
-  <si>
-    <t>\ue698</t>
-  </si>
-  <si>
-    <t>\ue699</t>
-  </si>
-  <si>
-    <t>\ue6a0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ue6a1</t>
-  </si>
-  <si>
-    <t>\ue6a2</t>
-  </si>
-  <si>
-    <t>\ue6a3</t>
-  </si>
-  <si>
-    <t>\ue6a4</t>
-  </si>
-  <si>
-    <t>\ue6a5</t>
-  </si>
-  <si>
-    <t>\ue6a6</t>
-  </si>
-  <si>
-    <t>\ue6a7</t>
-  </si>
-  <si>
-    <t>\ue6a8</t>
-  </si>
-  <si>
-    <t>\ue6a9</t>
-  </si>
-  <si>
-    <t>\ue6b0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ue6b1</t>
-  </si>
-  <si>
-    <t>\ue6b2</t>
-  </si>
-  <si>
-    <t>\ue6b3</t>
-  </si>
-  <si>
-    <t>\ue6b4</t>
-  </si>
-  <si>
-    <t>\ue6b5</t>
-  </si>
-  <si>
-    <t>\ue6b6</t>
-  </si>
-  <si>
-    <t>\ue6b7</t>
-  </si>
-  <si>
-    <t>\ue6b8</t>
-  </si>
-  <si>
-    <t>\ue6b9</t>
-  </si>
-  <si>
-    <t>\ue6c0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ue6c1</t>
-  </si>
-  <si>
-    <t>\ue6c2</t>
-  </si>
-  <si>
-    <t>白色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>橙色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>紫红羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>海蓝羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>黄色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>粉色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>灰色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>浅灰羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>青色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>紫色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>蓝色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>棕色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>绿色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>红色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>黑色羊羊魔法罐</t>
-  </si>
-  <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬羊羊魔法罐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊大百科魔法书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组，表示跳转前页数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic_book</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diamond_magic_sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">便携式仪器框架 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable_machine_frame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路元件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable_sheep_nmr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊能量发射器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊能量接收器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_emitter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_receiver</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1693,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1803,7 @@
         <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>217</v>
@@ -1729,1012 +1818,1137 @@
         <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="B2">
-        <v>13950100</v>
+        <v>13950001</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B3">
-        <v>13950200</v>
+        <v>13950002</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="B4">
-        <v>13950300</v>
+        <v>13950003</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" t="s">
-        <v>310</v>
+        <v>410</v>
+      </c>
+      <c r="D4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="B5">
-        <v>13950301</v>
+        <v>13950004</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" t="s">
-        <v>311</v>
+        <v>411</v>
+      </c>
+      <c r="D5" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B6">
-        <v>13950302</v>
+        <v>13950005</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" t="s">
-        <v>312</v>
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>221</v>
       </c>
       <c r="B7">
-        <v>13950303</v>
+        <v>13950100</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" t="s">
-        <v>286</v>
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B8">
-        <v>13950304</v>
+        <v>13950200</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B9">
-        <v>13950305</v>
+        <v>13950300</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B10">
-        <v>13950306</v>
+        <v>13950301</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B11">
-        <v>13950307</v>
+        <v>13950302</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B12">
-        <v>13950308</v>
+        <v>13950303</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>224</v>
       </c>
+      <c r="F12" t="s">
+        <v>282</v>
+      </c>
       <c r="G12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B13">
-        <v>13950309</v>
+        <v>13950304</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B14">
-        <v>13950310</v>
+        <v>13950305</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B15">
-        <v>13950311</v>
+        <v>13950306</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B16">
-        <v>13950312</v>
+        <v>13950307</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>224</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B17">
-        <v>13950313</v>
+        <v>13950308</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B18">
-        <v>13950314</v>
+        <v>13950309</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B19">
-        <v>13950315</v>
+        <v>13950310</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>224</v>
       </c>
-      <c r="F19" t="s">
-        <v>287</v>
-      </c>
       <c r="G19" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="B20">
-        <v>13950400</v>
+        <v>13950311</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>281</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="B21">
-        <v>13950500</v>
+        <v>13950312</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>281</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="B22">
-        <v>13950502</v>
+        <v>13950313</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>281</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="B23">
-        <v>13950600</v>
+        <v>13950314</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" t="s">
-        <v>300</v>
+        <v>281</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="B24">
-        <v>13950601</v>
+        <v>13950315</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" t="s">
-        <v>301</v>
+        <v>281</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" t="s">
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="B25">
-        <v>13950602</v>
+        <v>13950400</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B26">
-        <v>13950603</v>
+        <v>13950500</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="B27">
-        <v>13950700</v>
+        <v>13950502</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="B28">
-        <v>13950701</v>
+        <v>13950600</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>291</v>
+      </c>
+      <c r="D28" t="s">
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="B29">
-        <v>13950702</v>
+        <v>13950601</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>292</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B30">
-        <v>13950703</v>
+        <v>13950602</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>293</v>
+      </c>
+      <c r="D30" t="s">
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="B31">
-        <v>13950704</v>
+        <v>13950603</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>294</v>
+      </c>
+      <c r="D31" t="s">
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B32">
-        <v>13950705</v>
+        <v>13950700</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B33">
-        <v>13950706</v>
+        <v>13950701</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B34">
-        <v>13950707</v>
+        <v>13950702</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B35">
-        <v>13950708</v>
+        <v>13950703</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B36">
-        <v>13950709</v>
+        <v>13950704</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B37">
-        <v>13950710</v>
+        <v>13950705</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B38">
-        <v>13950711</v>
+        <v>13950706</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B39">
-        <v>13950712</v>
+        <v>13950707</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B40">
-        <v>13950713</v>
+        <v>13950708</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B41">
-        <v>13950714</v>
+        <v>13950709</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B42">
-        <v>13950715</v>
+        <v>13950710</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B43">
-        <v>13950716</v>
+        <v>13950711</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B44">
-        <v>13950717</v>
+        <v>13950712</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B45">
-        <v>13950718</v>
+        <v>13950713</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B46">
-        <v>13950719</v>
+        <v>13950714</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B47">
-        <v>13950720</v>
+        <v>13950715</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="G47" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B48">
-        <v>13950721</v>
+        <v>13950716</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B49">
-        <v>13950722</v>
+        <v>13950717</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="G49" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B50">
-        <v>13950723</v>
+        <v>13950718</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B51">
-        <v>13950724</v>
+        <v>13950719</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G51" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B52">
-        <v>13950725</v>
+        <v>13950720</v>
       </c>
       <c r="C52" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B53">
-        <v>13950726</v>
+        <v>13950721</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B54">
-        <v>13950727</v>
+        <v>13950722</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B55">
-        <v>13950728</v>
+        <v>13950723</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B56">
-        <v>13950729</v>
+        <v>13950724</v>
       </c>
       <c r="C56" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="G56" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B57">
-        <v>13950730</v>
+        <v>13950725</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G57" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B58">
-        <v>13950731</v>
+        <v>13950726</v>
       </c>
       <c r="C58" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B59">
-        <v>13950732</v>
+        <v>13950727</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B60">
-        <v>13950733</v>
+        <v>13950728</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G60" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B61">
-        <v>13950734</v>
+        <v>13950729</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>396</v>
       </c>
       <c r="G61" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B62">
-        <v>13950735</v>
+        <v>13950730</v>
       </c>
       <c r="C62" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B63">
-        <v>13950736</v>
+        <v>13950731</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="G63" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B64">
+        <v>13950732</v>
+      </c>
+      <c r="C64" t="s">
+        <v>286</v>
+      </c>
+      <c r="G64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65">
+        <v>13950733</v>
+      </c>
+      <c r="C65" t="s">
+        <v>275</v>
+      </c>
+      <c r="G65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66">
+        <v>13950734</v>
+      </c>
+      <c r="C66" t="s">
+        <v>277</v>
+      </c>
+      <c r="G66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>278</v>
+      </c>
+      <c r="B67">
+        <v>13950735</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68">
+        <v>13950736</v>
+      </c>
+      <c r="C68" t="s">
+        <v>299</v>
+      </c>
+      <c r="G68" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69">
         <v>13950737</v>
       </c>
-      <c r="C64" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" t="s">
-        <v>370</v>
+      <c r="C69" t="s">
+        <v>301</v>
+      </c>
+      <c r="G69" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70">
+        <v>13950738</v>
+      </c>
+      <c r="C70" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>390</v>
+      </c>
+      <c r="B71">
+        <v>13950401</v>
+      </c>
+      <c r="C71" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <v>13950740</v>
+      </c>
+      <c r="C72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73">
+        <v>13950741</v>
+      </c>
+      <c r="C73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74">
+        <v>13950742</v>
+      </c>
+      <c r="C74" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2963,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3039,7 +3253,7 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>

--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,10 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="2">计算颜色代码!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$67</definedName>
+    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$68</definedName>
     <definedName name="Untitled_1" localSheetId="1">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1313,103 +1312,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>light_shell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal_fastener</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio_essence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooden_handle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型通用羊羊能量储罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊能量发射器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊能量接收器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_universal_energy_jar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_emitter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable_sheep_nmr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet_wheat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_display_panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable_machine_frame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>甜美小麦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sweet_wheat</t>
+    <t>电路元件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型显示面板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">便携式仪器框架 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>便携式羊羊核磁共振仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小型显示面板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>small_display_panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>light_shell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal_fastener</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bio_essence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wooden_handle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">便携式仪器框架 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>circuit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>portable_machine_frame</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路元件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>portable_sheep_nmr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型通用羊羊能量储罐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型通用羊羊能量储罐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小型通用羊羊能量储罐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊能量发射器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊羊能量接收器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium_universal_energy_jar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>small_universal_energy_jar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>large_universal_energy_jar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy_emitter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy_receiver</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1784,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1823,72 +1822,72 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B2">
         <v>13950001</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B3">
         <v>13950002</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B4">
         <v>13950003</v>
       </c>
       <c r="C4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>13950004</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B6">
         <v>13950005</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2270,685 +2269,685 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="B26">
-        <v>13950500</v>
+        <v>13950401</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27">
-        <v>13950502</v>
+        <v>13950500</v>
       </c>
       <c r="C27" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B28">
-        <v>13950600</v>
+        <v>13950502</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="G28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29">
-        <v>13950601</v>
+        <v>13950600</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30">
-        <v>13950602</v>
+        <v>13950601</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31">
-        <v>13950603</v>
+        <v>13950602</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s">
         <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="B32">
-        <v>13950700</v>
+        <v>13950603</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33">
-        <v>13950701</v>
+        <v>13950700</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34">
-        <v>13950702</v>
+        <v>13950701</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35">
-        <v>13950703</v>
+        <v>13950702</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36">
-        <v>13950704</v>
+        <v>13950703</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37">
-        <v>13950705</v>
+        <v>13950704</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38">
-        <v>13950706</v>
+        <v>13950705</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B39">
-        <v>13950707</v>
+        <v>13950706</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B40">
-        <v>13950708</v>
+        <v>13950707</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41">
-        <v>13950709</v>
+        <v>13950708</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42">
-        <v>13950710</v>
+        <v>13950709</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43">
-        <v>13950711</v>
+        <v>13950710</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B44">
-        <v>13950712</v>
+        <v>13950711</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45">
-        <v>13950713</v>
+        <v>13950712</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46">
-        <v>13950714</v>
+        <v>13950713</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B47">
-        <v>13950715</v>
+        <v>13950714</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48">
-        <v>13950716</v>
+        <v>13950715</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49">
-        <v>13950717</v>
+        <v>13950716</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50">
-        <v>13950718</v>
+        <v>13950717</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51">
-        <v>13950719</v>
+        <v>13950718</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B52">
-        <v>13950720</v>
+        <v>13950719</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B53">
-        <v>13950721</v>
+        <v>13950720</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B54">
-        <v>13950722</v>
+        <v>13950721</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B55">
-        <v>13950723</v>
+        <v>13950722</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B56">
-        <v>13950724</v>
+        <v>13950723</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B57">
-        <v>13950725</v>
+        <v>13950724</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B58">
-        <v>13950726</v>
+        <v>13950725</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B59">
-        <v>13950727</v>
+        <v>13950726</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B60">
-        <v>13950728</v>
+        <v>13950727</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B61">
-        <v>13950729</v>
+        <v>13950728</v>
       </c>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B62">
-        <v>13950730</v>
+        <v>13950729</v>
       </c>
       <c r="C62" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="G62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B63">
-        <v>13950731</v>
+        <v>13950730</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B64">
-        <v>13950732</v>
+        <v>13950731</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B65">
-        <v>13950733</v>
+        <v>13950732</v>
       </c>
       <c r="C65" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B66">
-        <v>13950734</v>
+        <v>13950733</v>
       </c>
       <c r="C66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B67">
-        <v>13950735</v>
+        <v>13950734</v>
       </c>
       <c r="C67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B68">
-        <v>13950736</v>
+        <v>13950735</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B69">
-        <v>13950737</v>
+        <v>13950736</v>
       </c>
       <c r="C69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="B70">
-        <v>13950738</v>
+        <v>13950737</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>301</v>
+      </c>
+      <c r="G70" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B71">
-        <v>13950401</v>
+        <v>13950738</v>
       </c>
       <c r="C71" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B72">
         <v>13950740</v>
       </c>
       <c r="C72" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B73">
         <v>13950741</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B74">
         <v>13950742</v>
       </c>
       <c r="C74" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +2962,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="2">计算颜色代码!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$68</definedName>
+    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$69</definedName>
     <definedName name="Untitled_1" localSheetId="1">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="415">
   <si>
     <t>#F07613</t>
   </si>
@@ -1409,6 +1409,14 @@
   </si>
   <si>
     <t>便携式羊羊核磁共振仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块底座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1781,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1822,13 +1830,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B2">
-        <v>13950001</v>
+        <v>13950000</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
         <v>399</v>
@@ -1836,13 +1844,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3">
-        <v>13950002</v>
+        <v>13950001</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
         <v>399</v>
@@ -1850,13 +1858,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4">
-        <v>13950003</v>
+        <v>13950002</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>399</v>
@@ -1864,13 +1872,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B5">
-        <v>13950004</v>
+        <v>13950003</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>399</v>
@@ -1878,13 +1886,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6">
-        <v>13950005</v>
+        <v>13950004</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
         <v>399</v>
@@ -1892,1061 +1900,1075 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>396</v>
       </c>
       <c r="B7">
-        <v>13950100</v>
+        <v>13950005</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="B8">
-        <v>13950200</v>
+        <v>13950100</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" t="s">
-        <v>385</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B9">
-        <v>13950300</v>
+        <v>13950200</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10">
-        <v>13950301</v>
+        <v>13950300</v>
       </c>
       <c r="C10" t="s">
         <v>281</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11">
-        <v>13950302</v>
+        <v>13950301</v>
       </c>
       <c r="C11" t="s">
         <v>281</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12">
-        <v>13950303</v>
+        <v>13950302</v>
       </c>
       <c r="C12" t="s">
         <v>281</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>224</v>
       </c>
-      <c r="F12" t="s">
-        <v>282</v>
-      </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13">
-        <v>13950304</v>
+        <v>13950303</v>
       </c>
       <c r="C13" t="s">
         <v>281</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>224</v>
       </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B14">
-        <v>13950305</v>
+        <v>13950304</v>
       </c>
       <c r="C14" t="s">
         <v>281</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B15">
-        <v>13950306</v>
+        <v>13950305</v>
       </c>
       <c r="C15" t="s">
         <v>281</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16">
-        <v>13950307</v>
+        <v>13950306</v>
       </c>
       <c r="C16" t="s">
         <v>281</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>224</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B17">
-        <v>13950308</v>
+        <v>13950307</v>
       </c>
       <c r="C17" t="s">
         <v>281</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B18">
-        <v>13950309</v>
+        <v>13950308</v>
       </c>
       <c r="C18" t="s">
         <v>281</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B19">
-        <v>13950310</v>
+        <v>13950309</v>
       </c>
       <c r="C19" t="s">
         <v>281</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20">
-        <v>13950311</v>
+        <v>13950310</v>
       </c>
       <c r="C20" t="s">
         <v>281</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21">
-        <v>13950312</v>
+        <v>13950311</v>
       </c>
       <c r="C21" t="s">
         <v>281</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B22">
-        <v>13950313</v>
+        <v>13950312</v>
       </c>
       <c r="C22" t="s">
         <v>281</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B23">
-        <v>13950314</v>
+        <v>13950313</v>
       </c>
       <c r="C23" t="s">
         <v>281</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B24">
-        <v>13950315</v>
+        <v>13950314</v>
       </c>
       <c r="C24" t="s">
         <v>281</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>224</v>
       </c>
-      <c r="F24" t="s">
-        <v>283</v>
-      </c>
       <c r="G24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="B25">
-        <v>13950400</v>
+        <v>13950315</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>281</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
+        <v>283</v>
       </c>
       <c r="G25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="B26">
-        <v>13950401</v>
+        <v>13950400</v>
       </c>
       <c r="C26" t="s">
-        <v>403</v>
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="B27">
-        <v>13950500</v>
+        <v>13950401</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28">
-        <v>13950502</v>
+        <v>13950500</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B29">
-        <v>13950600</v>
+        <v>13950502</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="G29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30">
-        <v>13950601</v>
+        <v>13950600</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31">
-        <v>13950602</v>
+        <v>13950601</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32">
-        <v>13950603</v>
+        <v>13950602</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
         <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="B33">
-        <v>13950700</v>
+        <v>13950603</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34">
-        <v>13950701</v>
+        <v>13950700</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35">
-        <v>13950702</v>
+        <v>13950701</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36">
-        <v>13950703</v>
+        <v>13950702</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37">
-        <v>13950704</v>
+        <v>13950703</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38">
-        <v>13950705</v>
+        <v>13950704</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39">
-        <v>13950706</v>
+        <v>13950705</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40">
-        <v>13950707</v>
+        <v>13950706</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B41">
-        <v>13950708</v>
+        <v>13950707</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42">
-        <v>13950709</v>
+        <v>13950708</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43">
-        <v>13950710</v>
+        <v>13950709</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B44">
-        <v>13950711</v>
+        <v>13950710</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B45">
-        <v>13950712</v>
+        <v>13950711</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B46">
-        <v>13950713</v>
+        <v>13950712</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B47">
-        <v>13950714</v>
+        <v>13950713</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B48">
-        <v>13950715</v>
+        <v>13950714</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49">
-        <v>13950716</v>
+        <v>13950715</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50">
-        <v>13950717</v>
+        <v>13950716</v>
       </c>
       <c r="C50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51">
-        <v>13950718</v>
+        <v>13950717</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="G51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B52">
-        <v>13950719</v>
+        <v>13950718</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B53">
-        <v>13950720</v>
+        <v>13950719</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54">
-        <v>13950721</v>
+        <v>13950720</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B55">
-        <v>13950722</v>
+        <v>13950721</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B56">
-        <v>13950723</v>
+        <v>13950722</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B57">
-        <v>13950724</v>
+        <v>13950723</v>
       </c>
       <c r="C57" t="s">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B58">
-        <v>13950725</v>
+        <v>13950724</v>
       </c>
       <c r="C58" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B59">
-        <v>13950726</v>
+        <v>13950725</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B60">
-        <v>13950727</v>
+        <v>13950726</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B61">
-        <v>13950728</v>
+        <v>13950727</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B62">
-        <v>13950729</v>
+        <v>13950728</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B63">
-        <v>13950730</v>
+        <v>13950729</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="G63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B64">
-        <v>13950731</v>
+        <v>13950730</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B65">
-        <v>13950732</v>
+        <v>13950731</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B66">
-        <v>13950733</v>
+        <v>13950732</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B67">
-        <v>13950734</v>
+        <v>13950733</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B68">
-        <v>13950735</v>
+        <v>13950734</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B69">
-        <v>13950736</v>
+        <v>13950735</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B70">
-        <v>13950737</v>
+        <v>13950736</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="B71">
-        <v>13950738</v>
+        <v>13950737</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>301</v>
+      </c>
+      <c r="G71" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B72">
-        <v>13950740</v>
+        <v>13950738</v>
       </c>
       <c r="C72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B73">
-        <v>13950741</v>
+        <v>13950740</v>
       </c>
       <c r="C73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74">
+        <v>13950741</v>
+      </c>
+      <c r="C74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>411</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>13950742</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>407</v>
       </c>
     </row>

--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="2">计算颜色代码!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$69</definedName>
+    <definedName name="Untitled_1" localSheetId="0">物品列表!$A$1:$G$70</definedName>
     <definedName name="Untitled_1" localSheetId="1">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="417">
   <si>
     <t>#F07613</t>
   </si>
@@ -1417,6 +1417,14 @@
   </si>
   <si>
     <t>base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羊扳手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep_wrench</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1789,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2302,673 +2310,684 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
       <c r="B28">
-        <v>13950500</v>
+        <v>13950402</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s">
-        <v>323</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29">
-        <v>13950502</v>
+        <v>13950500</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30">
-        <v>13950600</v>
+        <v>13950502</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31">
-        <v>13950601</v>
+        <v>13950600</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32">
-        <v>13950602</v>
+        <v>13950601</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33">
-        <v>13950603</v>
+        <v>13950602</v>
       </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" t="s">
         <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="B34">
-        <v>13950700</v>
+        <v>13950603</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35">
-        <v>13950701</v>
+        <v>13950700</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36">
-        <v>13950702</v>
+        <v>13950701</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37">
-        <v>13950703</v>
+        <v>13950702</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38">
-        <v>13950704</v>
+        <v>13950703</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39">
-        <v>13950705</v>
+        <v>13950704</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40">
-        <v>13950706</v>
+        <v>13950705</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41">
-        <v>13950707</v>
+        <v>13950706</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42">
-        <v>13950708</v>
+        <v>13950707</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43">
-        <v>13950709</v>
+        <v>13950708</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44">
-        <v>13950710</v>
+        <v>13950709</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45">
-        <v>13950711</v>
+        <v>13950710</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46">
-        <v>13950712</v>
+        <v>13950711</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47">
-        <v>13950713</v>
+        <v>13950712</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48">
-        <v>13950714</v>
+        <v>13950713</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49">
-        <v>13950715</v>
+        <v>13950714</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50">
-        <v>13950716</v>
+        <v>13950715</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51">
-        <v>13950717</v>
+        <v>13950716</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B52">
-        <v>13950718</v>
+        <v>13950717</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="G52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B53">
-        <v>13950719</v>
+        <v>13950718</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B54">
-        <v>13950720</v>
+        <v>13950719</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55">
-        <v>13950721</v>
+        <v>13950720</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B56">
-        <v>13950722</v>
+        <v>13950721</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B57">
-        <v>13950723</v>
+        <v>13950722</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B58">
-        <v>13950724</v>
+        <v>13950723</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B59">
-        <v>13950725</v>
+        <v>13950724</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B60">
-        <v>13950726</v>
+        <v>13950725</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B61">
-        <v>13950727</v>
+        <v>13950726</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B62">
-        <v>13950728</v>
+        <v>13950727</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B63">
-        <v>13950729</v>
+        <v>13950728</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B64">
-        <v>13950730</v>
+        <v>13950729</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="G64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B65">
-        <v>13950731</v>
+        <v>13950730</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B66">
-        <v>13950732</v>
+        <v>13950731</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B67">
-        <v>13950733</v>
+        <v>13950732</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B68">
-        <v>13950734</v>
+        <v>13950733</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B69">
-        <v>13950735</v>
+        <v>13950734</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B70">
-        <v>13950736</v>
+        <v>13950735</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B71">
-        <v>13950737</v>
+        <v>13950736</v>
       </c>
       <c r="C71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="B72">
-        <v>13950738</v>
+        <v>13950737</v>
       </c>
       <c r="C72" t="s">
-        <v>404</v>
+        <v>301</v>
+      </c>
+      <c r="G72" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B73">
-        <v>13950740</v>
+        <v>13950738</v>
       </c>
       <c r="C73" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74">
-        <v>13950741</v>
+        <v>13950740</v>
       </c>
       <c r="C74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>410</v>
+      </c>
+      <c r="B75">
+        <v>13950741</v>
+      </c>
+      <c r="C75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>411</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>13950742</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>407</v>
       </c>
     </row>
